--- a/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA1654D0-92C7-4CF9-B515-D9ABA8352D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{617BCE61-8039-45D9-AD89-75EA288DB794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C025DB9-CC32-41FA-8E24-E1BC196D7E8F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6999F44A-DC4E-41A9-877A-0C9BE284A5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>11,49%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -152,37 +152,43 @@
     <t>1,23%</t>
   </si>
   <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -191,736 +197,694 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>91,43%</t>
+    <t>91,45%</t>
   </si>
   <si>
     <t>92,61%</t>
@@ -1335,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB321E3E-1BD5-4D85-B8E0-D28F29494209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9382623-DC31-4BBB-90FF-86D76E7BC295}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1644,13 +1608,13 @@
         <v>83268</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1629,13 @@
         <v>1638148</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1526</v>
@@ -1680,13 +1644,13 @@
         <v>1558651</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3117</v>
@@ -1695,13 +1659,13 @@
         <v>3196800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1721,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1733,13 @@
         <v>10210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1784,13 +1748,13 @@
         <v>7413</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1799,13 +1763,13 @@
         <v>17623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1784,13 @@
         <v>541198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>445</v>
@@ -1835,13 +1799,13 @@
         <v>468999</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>962</v>
@@ -1850,10 +1814,10 @@
         <v>1010197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -1957,10 +1921,10 @@
         <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,16 +1936,16 @@
         <v>3022</v>
       </c>
       <c r="D14" s="7">
-        <v>3092497</v>
+        <v>3092498</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>3097</v>
@@ -1990,28 +1954,28 @@
         <v>3173983</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>6119</v>
       </c>
       <c r="N14" s="7">
-        <v>6266478</v>
+        <v>6266479</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,7 +1987,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2053,7 +2017,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2067,7 +2031,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F1761C-40D4-4BB9-BF8F-5E821FF2F44F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9860B27-5427-4750-ABB8-D985C8F4FC11}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2103,7 +2067,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2210,13 +2174,13 @@
         <v>166407</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>228</v>
@@ -2225,13 +2189,13 @@
         <v>239552</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>378</v>
@@ -2240,13 +2204,13 @@
         <v>405958</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2225,13 @@
         <v>807421</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>1015</v>
@@ -2276,13 +2240,13 @@
         <v>1093975</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1772</v>
@@ -2291,13 +2255,13 @@
         <v>1901398</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2329,13 @@
         <v>69868</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -2380,13 +2344,13 @@
         <v>52429</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>115</v>
@@ -2395,13 +2359,13 @@
         <v>122297</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,7 +2380,7 @@
         <v>1890154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>112</v>
@@ -2508,7 +2472,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2818,7 +2782,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810E8673-785B-4B4A-BCF3-6C8DEA7C3AC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EC4699-8279-4559-99AA-94DCC0C2AC7E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2994,10 +2958,10 @@
         <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +2976,13 @@
         <v>610773</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>732</v>
@@ -3027,13 +2991,13 @@
         <v>808250</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1342</v>
@@ -3042,13 +3006,13 @@
         <v>1419022</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3080,13 @@
         <v>118951</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -3131,13 +3095,13 @@
         <v>81251</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>186</v>
@@ -3146,13 +3110,13 @@
         <v>200202</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3131,13 @@
         <v>1957434</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>1837</v>
@@ -3182,13 +3146,13 @@
         <v>1907049</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3674</v>
@@ -3197,13 +3161,13 @@
         <v>3864483</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,7 +3223,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3271,13 +3235,13 @@
         <v>20415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3286,13 +3250,13 @@
         <v>10281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3301,13 +3265,13 @@
         <v>30696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3286,13 @@
         <v>526471</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -3337,13 +3301,13 @@
         <v>538859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>1000</v>
@@ -3352,13 +3316,13 @@
         <v>1065330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3390,13 @@
         <v>282941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -3441,13 +3405,13 @@
         <v>277943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>525</v>
@@ -3456,13 +3420,13 @@
         <v>560883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3441,13 @@
         <v>3094677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>3085</v>
@@ -3492,13 +3456,13 @@
         <v>3254157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>6016</v>
@@ -3507,13 +3471,13 @@
         <v>6348835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,7 +3533,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047087C8-BF13-47D2-9145-05628343326F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A70567-9A28-4800-A1C4-F52588A125C0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,13 +3676,13 @@
         <v>95388</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>317</v>
@@ -3727,13 +3691,13 @@
         <v>168209</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>463</v>
@@ -3742,13 +3706,13 @@
         <v>263597</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3727,13 @@
         <v>445175</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>1107</v>
@@ -3778,13 +3742,13 @@
         <v>663716</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1651</v>
@@ -3793,13 +3757,13 @@
         <v>1108891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3831,13 @@
         <v>162670</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3882,13 +3846,13 @@
         <v>91360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>377</v>
@@ -3897,13 +3861,13 @@
         <v>254030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,28 +3882,28 @@
         <v>1999352</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>2748</v>
       </c>
       <c r="I8" s="7">
-        <v>2157436</v>
+        <v>2157435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>4535</v>
@@ -3948,13 +3912,13 @@
         <v>4156787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,7 +3945,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4010,7 +3974,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4022,13 +3986,13 @@
         <v>39278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4037,13 +4001,13 @@
         <v>17585</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -4052,13 +4016,13 @@
         <v>56863</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4037,13 @@
         <v>633761</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
         <v>972</v>
@@ -4088,13 +4052,13 @@
         <v>696301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1600</v>
@@ -4103,13 +4067,13 @@
         <v>1330063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4141,13 @@
         <v>297335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>521</v>
@@ -4192,13 +4156,13 @@
         <v>277154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>925</v>
@@ -4207,13 +4171,13 @@
         <v>574489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4192,13 @@
         <v>3078289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>4827</v>
@@ -4243,13 +4207,13 @@
         <v>3517452</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>7786</v>
@@ -4258,13 +4222,13 @@
         <v>6595741</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,7 +4284,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{617BCE61-8039-45D9-AD89-75EA288DB794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05735E5B-210C-4E70-AE7E-D487DE4882A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6999F44A-DC4E-41A9-877A-0C9BE284A5FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED57A365-90BF-422C-909E-189B91618A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>11,49%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,705 +140,756 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>95,9%</t>
   </si>
   <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>94,88%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
     <t>7,8%</t>
   </si>
   <si>
@@ -861,9 +912,6 @@
   </si>
   <si>
     <t>8,55%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
   </si>
   <si>
     <t>90,24%</t>
@@ -1299,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9382623-DC31-4BBB-90FF-86D76E7BC295}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48D4726-918D-458F-8B92-EA6DD566A742}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1769,7 +1817,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1832,13 @@
         <v>541198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>445</v>
@@ -1799,13 +1847,13 @@
         <v>468999</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>962</v>
@@ -1814,13 +1862,13 @@
         <v>1010197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1936,13 @@
         <v>183028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>200</v>
@@ -1903,13 +1951,13 @@
         <v>205215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -1918,13 +1966,13 @@
         <v>388244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,16 +1984,16 @@
         <v>3022</v>
       </c>
       <c r="D14" s="7">
-        <v>3092498</v>
+        <v>3092497</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3097</v>
@@ -1954,13 +2002,13 @@
         <v>3173983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6119</v>
@@ -1969,13 +2017,13 @@
         <v>6266479</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,7 +2035,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2031,7 +2079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9860B27-5427-4750-ABB8-D985C8F4FC11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E80F7-E001-4CED-8467-E818DCD082BD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2067,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2174,13 +2222,13 @@
         <v>166407</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>228</v>
@@ -2189,13 +2237,13 @@
         <v>239552</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>378</v>
@@ -2204,13 +2252,13 @@
         <v>405958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2273,13 @@
         <v>807421</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1015</v>
@@ -2240,13 +2288,13 @@
         <v>1093975</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1772</v>
@@ -2255,13 +2303,13 @@
         <v>1901398</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2377,13 @@
         <v>69868</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -2344,13 +2392,13 @@
         <v>52429</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>115</v>
@@ -2359,13 +2407,13 @@
         <v>122297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2428,13 @@
         <v>1890154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1582</v>
@@ -2395,13 +2443,13 @@
         <v>1699420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3367</v>
@@ -2410,13 +2458,13 @@
         <v>3589574</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2532,13 @@
         <v>13796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2499,13 +2547,13 @@
         <v>7060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2514,13 +2562,13 @@
         <v>20856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2583,13 @@
         <v>466536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>405</v>
@@ -2550,13 +2598,13 @@
         <v>450594</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>830</v>
@@ -2565,13 +2613,13 @@
         <v>917130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2687,13 @@
         <v>250071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>282</v>
@@ -2654,13 +2702,13 @@
         <v>299041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>511</v>
@@ -2669,13 +2717,13 @@
         <v>549111</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2738,13 @@
         <v>3164111</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>3002</v>
@@ -2705,13 +2753,13 @@
         <v>3243990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5969</v>
@@ -2720,13 +2768,13 @@
         <v>6408102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2830,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EC4699-8279-4559-99AA-94DCC0C2AC7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2D8934-FAEA-42A2-8B63-0BF6482DB868}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2818,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2925,13 +2973,13 @@
         <v>143574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>160</v>
@@ -2940,13 +2988,13 @@
         <v>186410</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>312</v>
@@ -2955,13 +3003,13 @@
         <v>329985</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +3024,13 @@
         <v>610773</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>732</v>
@@ -2991,13 +3039,13 @@
         <v>808250</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1342</v>
@@ -3006,13 +3054,13 @@
         <v>1419022</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3128,13 @@
         <v>118951</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -3095,13 +3143,13 @@
         <v>81251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>186</v>
@@ -3110,13 +3158,13 @@
         <v>200202</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3179,13 @@
         <v>1957434</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>1837</v>
@@ -3146,13 +3194,13 @@
         <v>1907049</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>3674</v>
@@ -3161,13 +3209,13 @@
         <v>3864483</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3283,13 @@
         <v>20415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3250,13 +3298,13 @@
         <v>10281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3265,13 +3313,13 @@
         <v>30696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3334,13 @@
         <v>526471</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -3301,13 +3349,13 @@
         <v>538859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>1000</v>
@@ -3316,13 +3364,13 @@
         <v>1065330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3438,13 @@
         <v>282941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -3405,13 +3453,13 @@
         <v>277943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>525</v>
@@ -3420,13 +3468,13 @@
         <v>560883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3489,13 @@
         <v>3094677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>3085</v>
@@ -3456,13 +3504,13 @@
         <v>3254157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>6016</v>
@@ -3471,13 +3519,13 @@
         <v>6348835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,7 +3581,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A70567-9A28-4800-A1C4-F52588A125C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22269856-1BC2-416D-B752-CD304BA594FE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3569,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3676,13 +3724,13 @@
         <v>95388</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>317</v>
@@ -3691,13 +3739,13 @@
         <v>168209</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>463</v>
@@ -3706,13 +3754,13 @@
         <v>263597</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3775,13 @@
         <v>445175</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>1107</v>
@@ -3742,13 +3790,13 @@
         <v>663716</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1651</v>
@@ -3757,13 +3805,13 @@
         <v>1108891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3879,13 @@
         <v>162670</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3846,13 +3894,13 @@
         <v>91360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>377</v>
@@ -3861,13 +3909,13 @@
         <v>254030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3930,13 @@
         <v>1999352</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>2748</v>
@@ -3897,13 +3945,13 @@
         <v>2157435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>4535</v>
@@ -3912,13 +3960,13 @@
         <v>4156787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +4034,13 @@
         <v>39278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4001,13 +4049,13 @@
         <v>17585</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -4016,13 +4064,13 @@
         <v>56863</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4085,13 @@
         <v>633761</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>972</v>
@@ -4052,13 +4100,13 @@
         <v>696301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>1600</v>
@@ -4067,13 +4115,13 @@
         <v>1330063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4189,13 @@
         <v>297335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>521</v>
@@ -4156,13 +4204,13 @@
         <v>277154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>925</v>
@@ -4171,13 +4219,13 @@
         <v>574489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4240,13 @@
         <v>3078289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>4827</v>
@@ -4207,13 +4255,13 @@
         <v>3517452</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>7786</v>
@@ -4222,13 +4270,13 @@
         <v>6595741</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,7 +4332,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05735E5B-210C-4E70-AE7E-D487DE4882A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81118EB1-8D56-4173-BA27-E3A87048E9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED57A365-90BF-422C-909E-189B91618A4E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4837FCAE-4626-4270-9D34-7488C36DE5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -152,43 +152,37 @@
     <t>1,23%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>97,42%</t>
+    <t>97,46%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,10 +191,10 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -209,31 +203,31 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,14%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>96,86%</t>
+    <t>96,91%</t>
   </si>
   <si>
     <t>99,33%</t>
@@ -242,28 +236,28 @@
     <t>98,29%</t>
   </si>
   <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>5,83%</t>
@@ -272,667 +266,661 @@
     <t>5,3%</t>
   </si>
   <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>91,45%</t>
+    <t>91,43%</t>
   </si>
   <si>
     <t>92,61%</t>
@@ -1347,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48D4726-918D-458F-8B92-EA6DD566A742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848921E0-6760-43EE-B113-2DE0ACA91066}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1656,13 +1644,13 @@
         <v>83268</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1665,13 @@
         <v>1638148</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1526</v>
@@ -1692,13 +1680,13 @@
         <v>1558651</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3117</v>
@@ -1707,13 +1695,13 @@
         <v>3196800</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1757,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1769,13 @@
         <v>10210</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1796,13 +1784,13 @@
         <v>7413</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1811,13 +1799,13 @@
         <v>17623</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1820,13 @@
         <v>541198</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>445</v>
@@ -1847,13 +1835,13 @@
         <v>468999</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>962</v>
@@ -1862,13 +1850,13 @@
         <v>1010197</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1924,13 @@
         <v>183028</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>200</v>
@@ -1951,13 +1939,13 @@
         <v>205215</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -1966,13 +1954,13 @@
         <v>388244</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1975,13 @@
         <v>3092497</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3097</v>
@@ -2002,28 +1990,28 @@
         <v>3173983</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6119</v>
       </c>
       <c r="N14" s="7">
-        <v>6266479</v>
+        <v>6266478</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2053,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2079,7 +2067,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E80F7-E001-4CED-8467-E818DCD082BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9CECAC-E188-4745-9475-D0589D97A317}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2115,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2222,13 +2210,13 @@
         <v>166407</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>228</v>
@@ -2237,13 +2225,13 @@
         <v>239552</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>378</v>
@@ -2252,13 +2240,13 @@
         <v>405958</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2261,13 @@
         <v>807421</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1015</v>
@@ -2288,13 +2276,13 @@
         <v>1093975</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1772</v>
@@ -2303,13 +2291,13 @@
         <v>1901398</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2365,13 @@
         <v>69868</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -2392,13 +2380,13 @@
         <v>52429</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>115</v>
@@ -2407,13 +2395,13 @@
         <v>122297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2416,13 @@
         <v>1890154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1582</v>
@@ -2443,13 +2431,13 @@
         <v>1699420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>3367</v>
@@ -2458,13 +2446,13 @@
         <v>3589574</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,7 +2508,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2532,13 +2520,13 @@
         <v>13796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2547,13 +2535,13 @@
         <v>7060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2562,13 +2550,13 @@
         <v>20856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2571,13 @@
         <v>466536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>405</v>
@@ -2598,13 +2586,13 @@
         <v>450594</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>830</v>
@@ -2613,13 +2601,13 @@
         <v>917130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2675,13 @@
         <v>250071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>282</v>
@@ -2702,13 +2690,13 @@
         <v>299041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>511</v>
@@ -2717,13 +2705,13 @@
         <v>549111</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2726,13 @@
         <v>3164111</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>3002</v>
@@ -2753,13 +2741,13 @@
         <v>3243990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>5969</v>
@@ -2768,13 +2756,13 @@
         <v>6408102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2818,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2D8934-FAEA-42A2-8B63-0BF6482DB868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B36D73-4EB5-4325-9EE1-F4012653EF7C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2961,13 @@
         <v>143574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>160</v>
@@ -2988,13 +2976,13 @@
         <v>186410</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>312</v>
@@ -3003,13 +2991,13 @@
         <v>329985</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3012,13 @@
         <v>610773</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>732</v>
@@ -3039,13 +3027,13 @@
         <v>808250</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1342</v>
@@ -3054,13 +3042,13 @@
         <v>1419022</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3116,13 @@
         <v>118951</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -3143,13 +3131,13 @@
         <v>81251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>186</v>
@@ -3158,13 +3146,13 @@
         <v>200202</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3167,13 @@
         <v>1957434</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>1837</v>
@@ -3194,13 +3182,13 @@
         <v>1907049</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3674</v>
@@ -3209,13 +3197,13 @@
         <v>3864483</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3259,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3283,13 +3271,13 @@
         <v>20415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3298,13 +3286,13 @@
         <v>10281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3313,13 +3301,13 @@
         <v>30696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3322,13 @@
         <v>526471</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -3349,13 +3337,13 @@
         <v>538859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>1000</v>
@@ -3364,13 +3352,13 @@
         <v>1065330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3426,13 @@
         <v>282941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -3453,13 +3441,13 @@
         <v>277943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>525</v>
@@ -3468,13 +3456,13 @@
         <v>560883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3477,13 @@
         <v>3094677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>3085</v>
@@ -3504,13 +3492,13 @@
         <v>3254157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>6016</v>
@@ -3519,13 +3507,13 @@
         <v>6348835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,7 +3569,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22269856-1BC2-416D-B752-CD304BA594FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FAF95-8479-40EA-9F1F-8CEE616E3BF3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3712,13 @@
         <v>95388</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>317</v>
@@ -3739,13 +3727,13 @@
         <v>168209</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>463</v>
@@ -3754,13 +3742,13 @@
         <v>263597</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3763,13 @@
         <v>445175</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>1107</v>
@@ -3790,13 +3778,13 @@
         <v>663716</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1651</v>
@@ -3805,13 +3793,13 @@
         <v>1108891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3867,13 @@
         <v>162670</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3894,13 +3882,13 @@
         <v>91360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>377</v>
@@ -3909,13 +3897,13 @@
         <v>254030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,28 +3918,28 @@
         <v>1999352</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>2748</v>
       </c>
       <c r="I8" s="7">
-        <v>2157435</v>
+        <v>2157436</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>4535</v>
@@ -3960,13 +3948,13 @@
         <v>4156787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,7 +3981,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4022,7 +4010,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4034,13 +4022,13 @@
         <v>39278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4049,13 +4037,13 @@
         <v>17585</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -4064,13 +4052,13 @@
         <v>56863</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4073,13 @@
         <v>633761</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>972</v>
@@ -4100,13 +4088,13 @@
         <v>696301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1600</v>
@@ -4115,13 +4103,13 @@
         <v>1330063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4177,13 @@
         <v>297335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>521</v>
@@ -4204,13 +4192,13 @@
         <v>277154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>925</v>
@@ -4219,13 +4207,13 @@
         <v>574489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4228,13 @@
         <v>3078289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>4827</v>
@@ -4255,13 +4243,13 @@
         <v>3517452</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>7786</v>
@@ -4270,13 +4258,13 @@
         <v>6595741</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4320,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81118EB1-8D56-4173-BA27-E3A87048E9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB2787B-2CB7-4974-866E-80CC76A5318F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4837FCAE-4626-4270-9D34-7488C36DE5CC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E82E9B84-EC70-4B5C-B099-957E18FCDEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -722,208 +722,190 @@
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848921E0-6760-43EE-B113-2DE0ACA91066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34D3772-299C-423D-860B-B6CBFFFFB390}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1537,7 +1519,7 @@
         <v>2040</v>
       </c>
       <c r="N5" s="7">
-        <v>2059483</v>
+        <v>2059482</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1588,7 +1570,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1692,7 +1674,7 @@
         <v>3117</v>
       </c>
       <c r="N8" s="7">
-        <v>3196800</v>
+        <v>3196799</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>44</v>
@@ -1743,7 +1725,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1987,7 +1969,7 @@
         <v>3097</v>
       </c>
       <c r="I14" s="7">
-        <v>3173983</v>
+        <v>3173982</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2038,7 +2020,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9CECAC-E188-4745-9475-D0589D97A317}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53D407-0E7E-4DA1-B5B3-52954EF54148}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2288,7 +2270,7 @@
         <v>1772</v>
       </c>
       <c r="N5" s="7">
-        <v>1901398</v>
+        <v>1901397</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>102</v>
@@ -2339,7 +2321,7 @@
         <v>2150</v>
       </c>
       <c r="N6" s="7">
-        <v>2307356</v>
+        <v>2307355</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2837,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B36D73-4EB5-4325-9EE1-F4012653EF7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D84D48-8284-4388-BAB8-78762930276D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3349,7 +3331,7 @@
         <v>1000</v>
       </c>
       <c r="N11" s="7">
-        <v>1065330</v>
+        <v>1065331</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>207</v>
@@ -3400,7 +3382,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3588,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FAF95-8479-40EA-9F1F-8CEE616E3BF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D87B20-8AF7-49CE-A6DF-23296D248425}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,7 +3691,7 @@
         <v>146</v>
       </c>
       <c r="D4" s="7">
-        <v>95388</v>
+        <v>90663</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3724,7 +3706,7 @@
         <v>317</v>
       </c>
       <c r="I4" s="7">
-        <v>168209</v>
+        <v>152968</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3739,16 +3721,16 @@
         <v>463</v>
       </c>
       <c r="N4" s="7">
-        <v>263597</v>
+        <v>243631</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,46 +3742,46 @@
         <v>544</v>
       </c>
       <c r="D5" s="7">
-        <v>445175</v>
+        <v>423279</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>1107</v>
       </c>
       <c r="I5" s="7">
-        <v>663716</v>
+        <v>599094</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1651</v>
       </c>
       <c r="N5" s="7">
-        <v>1108891</v>
+        <v>1022373</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +3793,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3808,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831925</v>
+        <v>752062</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3841,7 +3823,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1372488</v>
+        <v>1266004</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3864,46 +3846,46 @@
         <v>205</v>
       </c>
       <c r="D7" s="7">
-        <v>162670</v>
+        <v>153186</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
       </c>
       <c r="I7" s="7">
-        <v>91360</v>
+        <v>84091</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>377</v>
       </c>
       <c r="N7" s="7">
-        <v>254030</v>
+        <v>237277</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,10 +3897,10 @@
         <v>1787</v>
       </c>
       <c r="D8" s="7">
-        <v>1999352</v>
+        <v>2137141</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>252</v>
@@ -3930,7 +3912,7 @@
         <v>2748</v>
       </c>
       <c r="I8" s="7">
-        <v>2157436</v>
+        <v>2153054</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>254</v>
@@ -3945,16 +3927,16 @@
         <v>4535</v>
       </c>
       <c r="N8" s="7">
-        <v>4156787</v>
+        <v>4290195</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3948,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3981,7 +3963,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3996,7 +3978,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4019,7 +4001,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>39278</v>
+        <v>37627</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>259</v>
@@ -4034,31 +4016,31 @@
         <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>17585</v>
+        <v>16068</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
       </c>
       <c r="N10" s="7">
-        <v>56863</v>
+        <v>53695</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,46 +4052,46 @@
         <v>628</v>
       </c>
       <c r="D11" s="7">
-        <v>633761</v>
+        <v>608996</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>972</v>
       </c>
       <c r="I11" s="7">
-        <v>696301</v>
+        <v>644395</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>1600</v>
       </c>
       <c r="N11" s="7">
-        <v>1330063</v>
+        <v>1253391</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4103,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4136,7 +4118,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4151,7 +4133,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4174,46 +4156,46 @@
         <v>404</v>
       </c>
       <c r="D13" s="7">
-        <v>297335</v>
+        <v>281476</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>521</v>
       </c>
       <c r="I13" s="7">
-        <v>277154</v>
+        <v>253127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>925</v>
       </c>
       <c r="N13" s="7">
-        <v>574489</v>
+        <v>534603</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,46 +4207,46 @@
         <v>2959</v>
       </c>
       <c r="D14" s="7">
-        <v>3078289</v>
+        <v>3169416</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>4827</v>
       </c>
       <c r="I14" s="7">
-        <v>3517452</v>
+        <v>3396543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>7786</v>
       </c>
       <c r="N14" s="7">
-        <v>6595741</v>
+        <v>6565959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4258,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375624</v>
+        <v>3450892</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4291,7 +4273,7 @@
         <v>5348</v>
       </c>
       <c r="I15" s="7">
-        <v>3794606</v>
+        <v>3649670</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4288,7 @@
         <v>8711</v>
       </c>
       <c r="N15" s="7">
-        <v>7170230</v>
+        <v>7100562</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
